--- a/Scheduler/investment_company_announcement/2024Q2_investment_company_announcement.xlsx
+++ b/Scheduler/investment_company_announcement/2024Q2_investment_company_announcement.xlsx
@@ -31,7 +31,7 @@
     <t>20240630</t>
   </si>
   <si>
-    <t>743.8</t>
+    <t>714.3</t>
   </si>
   <si>
     <t>N</t>
@@ -40,7 +40,7 @@
     <t>DS투자증권</t>
   </si>
   <si>
-    <t>558.2</t>
+    <t>551.5</t>
   </si>
   <si>
     <t>Y</t>
@@ -49,355 +49,355 @@
     <t>IBK투자증권</t>
   </si>
   <si>
-    <t>821.4</t>
+    <t>837.6</t>
   </si>
   <si>
     <t>KB증권</t>
   </si>
   <si>
-    <t>647.3</t>
+    <t>630.3</t>
   </si>
   <si>
     <t>KR투자증권</t>
   </si>
   <si>
-    <t>654.1</t>
+    <t>671.3</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>543.1</t>
+    <t>543.5</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>856.1</t>
+    <t>850.2</t>
   </si>
   <si>
     <t>UBS증권</t>
   </si>
   <si>
-    <t>114.1</t>
+    <t>103.1</t>
   </si>
   <si>
     <t>골드만삭스증권</t>
   </si>
   <si>
-    <t>122.1</t>
+    <t>123.7</t>
   </si>
   <si>
     <t>교보증권</t>
   </si>
   <si>
-    <t>763.3</t>
+    <t>732.6</t>
   </si>
   <si>
     <t>나틱시스증권 서울지점</t>
   </si>
   <si>
-    <t>117.4</t>
+    <t>110.8</t>
   </si>
   <si>
     <t>넥스트증권</t>
   </si>
   <si>
-    <t>137.7</t>
+    <t>139.6</t>
   </si>
   <si>
     <t>노무라금융투자</t>
   </si>
   <si>
-    <t>555.9</t>
+    <t>646.7</t>
   </si>
   <si>
     <t>다올투자증권</t>
   </si>
   <si>
-    <t>541.8</t>
+    <t>617.7</t>
   </si>
   <si>
     <t>다이와증권캐피탈마켓코리아</t>
   </si>
   <si>
-    <t>175.6</t>
+    <t>408</t>
   </si>
   <si>
     <t>대신증권</t>
   </si>
   <si>
-    <t>402.8</t>
+    <t>446.4</t>
   </si>
   <si>
     <t>도이치증권</t>
   </si>
   <si>
-    <t>128</t>
+    <t>126.2</t>
   </si>
   <si>
     <t>리딩투자증권</t>
   </si>
   <si>
-    <t>140.8</t>
+    <t>634.9</t>
   </si>
   <si>
     <t>맥쿼리증권</t>
   </si>
   <si>
-    <t>161.9</t>
+    <t>163.4</t>
   </si>
   <si>
     <t>메리츠증권</t>
   </si>
   <si>
-    <t>839.6</t>
+    <t>815.5</t>
   </si>
   <si>
     <t>메릴린치증권</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110.9</t>
   </si>
   <si>
     <t>모건스탠리증권</t>
   </si>
   <si>
-    <t>121.5</t>
+    <t>121</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>694.9</t>
+    <t>688.6</t>
   </si>
   <si>
     <t>미즈호증권</t>
   </si>
   <si>
-    <t>115.8</t>
+    <t>110.6</t>
   </si>
   <si>
     <t>부국증권</t>
   </si>
   <si>
-    <t>735.6</t>
+    <t>666.2</t>
   </si>
   <si>
     <t>비엔케이투자증권</t>
   </si>
   <si>
-    <t>557.4</t>
+    <t>663.2</t>
   </si>
   <si>
     <t>비엔피파리바증권</t>
   </si>
   <si>
-    <t>108</t>
+    <t>105.7</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>669</t>
+    <t>678.8</t>
   </si>
   <si>
     <t>상상인증권</t>
   </si>
   <si>
-    <t>676.6</t>
+    <t>692.8</t>
   </si>
   <si>
     <t>신영증권</t>
   </si>
   <si>
-    <t>661.6</t>
+    <t>624.9</t>
   </si>
   <si>
     <t>신한투자증권</t>
   </si>
   <si>
-    <t>837.8</t>
+    <t>798.2</t>
   </si>
   <si>
     <t>씨엘에스에이코리아증권</t>
   </si>
   <si>
-    <t>117.6</t>
+    <t>119</t>
   </si>
   <si>
     <t>씨엠에스증권 한국</t>
   </si>
   <si>
-    <t>126.8</t>
+    <t>126</t>
   </si>
   <si>
     <t>씨지에스 인터내셔널증권 홍콩 한국지점</t>
   </si>
   <si>
-    <t>110.6</t>
+    <t>109.9</t>
   </si>
   <si>
     <t>씨티그룹글로벌마켓증권</t>
   </si>
   <si>
-    <t>120.3</t>
+    <t>112</t>
   </si>
   <si>
     <t>아이엔지증권 서울지점</t>
   </si>
   <si>
-    <t>102.2</t>
+    <t>100.9</t>
   </si>
   <si>
     <t>아이엠증권</t>
   </si>
   <si>
-    <t>855.9</t>
+    <t>681.2</t>
   </si>
   <si>
     <t>엘에스증권</t>
   </si>
   <si>
-    <t>685.1</t>
+    <t>826</t>
   </si>
   <si>
     <t>우리투자증권(구.포스증권)</t>
   </si>
   <si>
-    <t>115.6</t>
+    <t>110.3</t>
   </si>
   <si>
     <t>유안타증권</t>
   </si>
   <si>
-    <t>803.9</t>
+    <t>770.3</t>
   </si>
   <si>
     <t>유진투자증권</t>
   </si>
   <si>
-    <t>762.8</t>
+    <t>751.5</t>
   </si>
   <si>
     <t>유화증권</t>
   </si>
   <si>
-    <t>140.3</t>
+    <t>140.4</t>
   </si>
   <si>
     <t>제이피모간증권</t>
   </si>
   <si>
-    <t>114.9</t>
+    <t>113.7</t>
   </si>
   <si>
     <t>카카오페이증권</t>
   </si>
   <si>
-    <t>156.4</t>
+    <t>159</t>
   </si>
   <si>
     <t>케이아이디비채권중개</t>
   </si>
   <si>
-    <t>113.5</t>
+    <t>112.7</t>
   </si>
   <si>
     <t>케이프투자증권</t>
   </si>
   <si>
-    <t>764.8</t>
+    <t>723.2</t>
   </si>
   <si>
     <t>코리아에셋투자증권</t>
   </si>
   <si>
-    <t>300.5</t>
+    <t>746.6</t>
   </si>
   <si>
     <t>크레디 아그리콜 아시아 증권 서울지점</t>
   </si>
   <si>
-    <t>116.4</t>
+    <t>106.5</t>
   </si>
   <si>
     <t>크레디트스위스증권</t>
   </si>
   <si>
-    <t>106.9</t>
+    <t>109.4</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
-    <t>672.3</t>
+    <t>627.4</t>
   </si>
   <si>
     <t>토스증권</t>
   </si>
   <si>
-    <t>473.6</t>
+    <t>454.8</t>
   </si>
   <si>
     <t>하나증권</t>
   </si>
   <si>
-    <t>727.3</t>
+    <t>747.1</t>
   </si>
   <si>
     <t>한국스탠다드차타드증권</t>
   </si>
   <si>
-    <t>104.1</t>
+    <t>109.7</t>
   </si>
   <si>
     <t>한국아이엠씨증권</t>
   </si>
   <si>
-    <t>117.1</t>
+    <t>114</t>
   </si>
   <si>
     <t>한국에스지증권</t>
   </si>
   <si>
-    <t>401.5</t>
+    <t>412.1</t>
   </si>
   <si>
     <t>한국투자증권</t>
   </si>
   <si>
-    <t>628.7</t>
+    <t>641.3</t>
   </si>
   <si>
     <t>한양증권</t>
   </si>
   <si>
-    <t>698.1</t>
+    <t>743.3</t>
   </si>
   <si>
     <t>한화투자증권</t>
   </si>
   <si>
-    <t>746.2</t>
+    <t>664.3</t>
   </si>
   <si>
     <t>현대차증권</t>
   </si>
   <si>
-    <t>906.5</t>
+    <t>849.5</t>
   </si>
   <si>
     <t>홍콩상하이증권</t>
   </si>
   <si>
-    <t>111.5</t>
+    <t>112.1</t>
   </si>
   <si>
     <t>흥국증권</t>
   </si>
   <si>
-    <t>498.8</t>
+    <t>284.2</t>
   </si>
 </sst>
 </file>
